--- a/HLR of Project.xlsx
+++ b/HLR of Project.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="153">
   <si>
     <t>HLR ID</t>
   </si>
@@ -98,9 +99,6 @@
     <t>Cart</t>
   </si>
   <si>
-    <t>user vcan see the different types of musical instrument and their prices</t>
-  </si>
-  <si>
     <t>Exam</t>
   </si>
   <si>
@@ -180,13 +178,319 @@
   </si>
   <si>
     <t xml:space="preserve">Reviewed BY </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Pre-Condition</t>
+  </si>
+  <si>
+    <t>Post-Condition</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> feed back</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>Personal Computer (Windows 7) , Lenovo , Chrome Version 109.0.5414.120 ,</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path</t>
+  </si>
+  <si>
+    <t>While entering valid URL path,user able to led to the website.</t>
+  </si>
+  <si>
+    <t>entered into valid website</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>as expected</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Same device</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)click on TULIP Logo</t>
+  </si>
+  <si>
+    <t>after entering the website,user click on the tulip logo to refresh the home page</t>
+  </si>
+  <si>
+    <t>refresh the home page</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>same device</t>
+  </si>
+  <si>
+    <t>after entering the website,user click on the courses to see the different types of courses</t>
+  </si>
+  <si>
+    <t>Different types of courses menu shows</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>unsuccessful</t>
+  </si>
+  <si>
+    <t>Requirments =</t>
+  </si>
+  <si>
+    <t>Password must be 8 digits with one special character</t>
+  </si>
+  <si>
+    <t>need to finish better,need to do better allignment</t>
+  </si>
+  <si>
+    <t>user can see the different types of musical instrument and their prices</t>
+  </si>
+  <si>
+    <t>after entering the website,user click on the carts to see the different types of  musical instrument and their prices</t>
+  </si>
+  <si>
+    <t>leads to different page to see different types of instruments and prices shown</t>
+  </si>
+  <si>
+    <t>after entering the website,user click on the exam to see upcoming exam dates and fees</t>
+  </si>
+  <si>
+    <t>exam dates n fees shown to the users</t>
+  </si>
+  <si>
+    <t>Exam dates not highlighted,moreover Prices of exam fees not shown</t>
+  </si>
+  <si>
+    <t>after entering the website,user click on the certificate to see the demo of certificate which is give to them after completing courses</t>
+  </si>
+  <si>
+    <t>Demo Certificate shown</t>
+  </si>
+  <si>
+    <t>username first charster must be upper case</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)click on the certificated</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)click on the Exam</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)click on the cart</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)click on the course</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)enter their valid user name with matching requirment</t>
+  </si>
+  <si>
+    <t>after entering the website,user are answered to write their valid user name</t>
+  </si>
+  <si>
+    <t>is able to enter all right credential</t>
+  </si>
+  <si>
+    <t>User able to write their given user names</t>
+  </si>
+  <si>
+    <t>while entering wrong user name without matching their requirments the website is not allow to access</t>
+  </si>
+  <si>
+    <t>is not able to enter all right credential</t>
+  </si>
+  <si>
+    <t>User able to write their given passwords</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)enter their valid password with matching requirment</t>
+  </si>
+  <si>
+    <t>after entering the website,user are answered to write their valid password with 8 digits with one special character</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)enter their invalid password without matching requirment</t>
+  </si>
+  <si>
+    <t>after entering the website,user write password with 7 digits with one special character</t>
+  </si>
+  <si>
+    <t>required not more than n les than 8 digits</t>
+  </si>
+  <si>
+    <t>after entering the website,user write password with 9 digits with one special character</t>
+  </si>
+  <si>
+    <t>required not more than 1 special character</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)enter their  password without matching requirment</t>
+  </si>
+  <si>
+    <t>after entering the website,user are answered to write their password with 8 digits with 2 special character</t>
+  </si>
+  <si>
+    <t>after entering the website,user are answered to write their password with 8 digits with 0 special character</t>
+  </si>
+  <si>
+    <t>user able to see demo Certificate</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)enter their user name 3)enter their valid password 4)click on log in</t>
+  </si>
+  <si>
+    <t>after entring valid user name and password user able to login by clicking on login button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leads to the users profile </t>
+  </si>
+  <si>
+    <t>Forgot password button</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2) click on forgot password button</t>
+  </si>
+  <si>
+    <t>send OTP on users email</t>
+  </si>
+  <si>
+    <t>no OTP received in users given Email address</t>
+  </si>
+  <si>
+    <t>user can able to resume their old password by using given OTP to their Email</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2)enter their invalid user name without matching requirment (without uppercase)</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>Create Newaccount button</t>
+  </si>
+  <si>
+    <t>1) enter valid URL path 2) click on to creat new acount button</t>
+  </si>
+  <si>
+    <t>leads user to fill up the all information needed for new account</t>
+  </si>
+  <si>
+    <t>one more information needed 'phone number'</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) enter valid URL path 2) click on to contact us </t>
+  </si>
+  <si>
+    <t>user can contact the company for more iquiry via phone calls or emails</t>
+  </si>
+  <si>
+    <t>if helps users to give information about the company like phone number,email,address</t>
+  </si>
+  <si>
+    <t>need to finish better,need to do better allignment moreover phone number is missing</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) enter valid URL path 2) click on About us </t>
+  </si>
+  <si>
+    <t>lead to new tab to show the companies original documents for trust</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) enter valid URL path 2) click on whatsapp logo </t>
+  </si>
+  <si>
+    <t>user can contact company through whatsapp web</t>
+  </si>
+  <si>
+    <t>its llead to the companies private whatsapp chat via whatsapp web</t>
+  </si>
+  <si>
+    <t>Alex parmar</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>Created BY</t>
+  </si>
+  <si>
+    <t>TULIP MUSIC ACADEMY' WEBPAGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +506,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +553,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -240,12 +583,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -258,6 +625,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,9 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -556,35 +968,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -640,7 +1052,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,10 +1060,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,10 +1093,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,10 +1104,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,10 +1115,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,10 +1137,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,10 +1148,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,10 +1159,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -760,4 +1172,700 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="147" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="147" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="168" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="147" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="168" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="294" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" ht="63" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>